--- a/personal/outputs/個人版分析 (排版).xlsx
+++ b/personal/outputs/個人版分析 (排版).xlsx
@@ -9,38 +9,39 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="20" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="年齡" sheetId="1" r:id="rId1"/>
-    <sheet name="最高學歷" sheetId="2" r:id="rId2"/>
-    <sheet name="最高學歷(比例)" sheetId="3" r:id="rId3"/>
-    <sheet name="總年資" sheetId="4" r:id="rId4"/>
-    <sheet name="總年資(比例)" sheetId="5" r:id="rId5"/>
-    <sheet name="離開工程職務最主要原因分析" sheetId="6" r:id="rId6"/>
-    <sheet name="目前工作狀況" sheetId="7" r:id="rId7"/>
-    <sheet name="對於現任職務之五年後職涯發展的預期" sheetId="8" r:id="rId8"/>
-    <sheet name="對於現任職務之五年後職涯發展的預期(比例)" sheetId="9" r:id="rId9"/>
-    <sheet name="預期的職涯發展需要哪些配合因素來達成" sheetId="10" r:id="rId10"/>
-    <sheet name="哪些福利措施最有助於您留在工程與科技領域就業" sheetId="11" r:id="rId11"/>
-    <sheet name="您服務的單位或待業前服務的單位提供哪些職場相關措施" sheetId="12" r:id="rId12"/>
-    <sheet name="您認為工程與科技領域最需要改善的性別議題有哪些" sheetId="13" r:id="rId13"/>
-    <sheet name="女性身上求學階段有否差異(性別)" sheetId="14" r:id="rId14"/>
-    <sheet name="女性身上求學階段有否差異" sheetId="15" r:id="rId15"/>
-    <sheet name="工程與科技領域女性身上職務選擇有否差異(性別)" sheetId="16" r:id="rId16"/>
-    <sheet name="工程與科技領域女性身上職務選擇有否差異" sheetId="17" r:id="rId17"/>
-    <sheet name="不同性別在工程與科技領域的求職難易度有否差異(性別)" sheetId="18" r:id="rId18"/>
-    <sheet name="性別在求職時的職務選擇方面有否差異" sheetId="19" r:id="rId19"/>
-    <sheet name="不同性別的工程與科技領域主管是否有領導風格的差異(性別)" sheetId="20" r:id="rId20"/>
-    <sheet name="您個人比較偏好與何種性別工程與科技領域的主管共事(性別)" sheetId="21" r:id="rId21"/>
-    <sheet name="不同性別工程與科技領域的主管領導風格差異主要在哪些層面(性別)" sheetId="22" r:id="rId22"/>
+    <sheet name="學歷" sheetId="23" r:id="rId2"/>
+    <sheet name="最高學歷" sheetId="2" r:id="rId3"/>
+    <sheet name="最高學歷(比例)" sheetId="3" r:id="rId4"/>
+    <sheet name="總年資" sheetId="4" r:id="rId5"/>
+    <sheet name="總年資(比例)" sheetId="5" r:id="rId6"/>
+    <sheet name="離開工程職務最主要原因分析" sheetId="6" r:id="rId7"/>
+    <sheet name="目前工作狀況" sheetId="7" r:id="rId8"/>
+    <sheet name="對於現任職務之五年後職涯發展的預期" sheetId="8" r:id="rId9"/>
+    <sheet name="對於現任職務之五年後職涯發展的預期(比例)" sheetId="9" r:id="rId10"/>
+    <sheet name="預期的職涯發展需要哪些配合因素來達成" sheetId="10" r:id="rId11"/>
+    <sheet name="哪些福利措施最有助於您留在工程與科技領域就業" sheetId="11" r:id="rId12"/>
+    <sheet name="您服務的單位或待業前服務的單位提供哪些職場相關措施" sheetId="12" r:id="rId13"/>
+    <sheet name="您認為工程與科技領域最需要改善的性別議題有哪些" sheetId="13" r:id="rId14"/>
+    <sheet name="女性身上求學階段有否差異(性別)" sheetId="14" r:id="rId15"/>
+    <sheet name="女性身上求學階段有否差異" sheetId="15" r:id="rId16"/>
+    <sheet name="工程與科技領域女性身上職務選擇有否差異(性別)" sheetId="16" r:id="rId17"/>
+    <sheet name="工程與科技領域女性身上職務選擇有否差異" sheetId="17" r:id="rId18"/>
+    <sheet name="不同性別在工程與科技領域的求職難易度有否差異(性別)" sheetId="18" r:id="rId19"/>
+    <sheet name="性別在求職時的職務選擇方面有否差異" sheetId="19" r:id="rId20"/>
+    <sheet name="不同性別的工程與科技領域主管是否有領導風格的差異(性別)" sheetId="20" r:id="rId21"/>
+    <sheet name="您個人比較偏好與何種性別工程與科技領域的主管共事(性別)" sheetId="21" r:id="rId22"/>
+    <sheet name="不同性別工程與科技領域的主管領導風格差異主要在哪些層面(性別)" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="212">
   <si>
     <t>女性占比</t>
   </si>
@@ -547,6 +548,135 @@
   </si>
   <si>
     <t>非上班時間之任務交辦</t>
+  </si>
+  <si>
+    <t>50.0%</t>
+  </si>
+  <si>
+    <t>27.4%</t>
+  </si>
+  <si>
+    <t>39.8%</t>
+  </si>
+  <si>
+    <t>42.7%</t>
+  </si>
+  <si>
+    <t>37.7%</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>22.2%</t>
+  </si>
+  <si>
+    <t>8.8%</t>
+  </si>
+  <si>
+    <t>10.0%</t>
+  </si>
+  <si>
+    <t>9.1%</t>
+  </si>
+  <si>
+    <t>26.3%</t>
+  </si>
+  <si>
+    <t>18.8%</t>
+  </si>
+  <si>
+    <t>14.3%</t>
+  </si>
+  <si>
+    <t>100.0%</t>
+  </si>
+  <si>
+    <t>42.9%</t>
+  </si>
+  <si>
+    <t>29.0%</t>
+  </si>
+  <si>
+    <t>23.4%</t>
+  </si>
+  <si>
+    <t>25.0%</t>
+  </si>
+  <si>
+    <t>28.4%</t>
+  </si>
+  <si>
+    <t>40.0%</t>
+  </si>
+  <si>
+    <t>41.0%</t>
+  </si>
+  <si>
+    <t>41.7%</t>
+  </si>
+  <si>
+    <t>41.3%</t>
+  </si>
+  <si>
+    <t>37.5%</t>
+  </si>
+  <si>
+    <t>36.4%</t>
+  </si>
+  <si>
+    <t>38.0%</t>
+  </si>
+  <si>
+    <t>38.9%</t>
+  </si>
+  <si>
+    <t>40.8%</t>
+  </si>
+  <si>
+    <t>61.9%</t>
+  </si>
+  <si>
+    <t>42.4%</t>
+  </si>
+  <si>
+    <t>33.3%</t>
+  </si>
+  <si>
+    <t>31.6%</t>
+  </si>
+  <si>
+    <t>47.1%</t>
+  </si>
+  <si>
+    <t>45.0%</t>
+  </si>
+  <si>
+    <t>47.7%</t>
+  </si>
+  <si>
+    <t>47.4%</t>
+  </si>
+  <si>
+    <t>47.3%</t>
+  </si>
+  <si>
+    <t>52.9%</t>
+  </si>
+  <si>
+    <t>52.2%</t>
+  </si>
+  <si>
+    <t>52.5%</t>
+  </si>
+  <si>
+    <t>72.0%</t>
+  </si>
+  <si>
+    <t>61.0%</t>
+  </si>
+  <si>
+    <t>女性佔比</t>
   </si>
 </sst>
 </file>
@@ -630,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -649,32 +779,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="119">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="71">
     <dxf>
       <fill>
         <patternFill>
@@ -720,13 +832,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -735,41 +840,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1214,279 +1284,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1933,16 +1730,490 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="top10" dxfId="79" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="70" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="top10" dxfId="78" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="69" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.307</v>
+      </c>
+      <c r="C3">
+        <v>163</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.151</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.122</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="C4">
+        <v>487</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.314</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.441</v>
+      </c>
+      <c r="C6">
+        <v>152</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C7">
+        <v>172</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="C8">
+        <v>177</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.108</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="C10">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.128</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.222</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1307</v>
+      </c>
+      <c r="D11">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>94</v>
+      </c>
+      <c r="F11">
+        <v>306</v>
+      </c>
+      <c r="G11">
+        <v>411</v>
+      </c>
+      <c r="H11">
+        <v>147</v>
+      </c>
+      <c r="I11">
+        <v>222</v>
+      </c>
+      <c r="J11">
+        <v>17</v>
+      </c>
+      <c r="K11">
+        <v>45</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B3:M10">
+    <cfRule type="expression" dxfId="27" priority="1">
+      <formula>B3=LARGE(B$3:B$10,3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="2">
+      <formula>B3=LARGE(B$3:B$10,2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>B3=LARGE(B$3:B$10,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2098,13 +2369,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:D9">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>B2=LARGE(B$2:B$9,3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>B2=LARGE(B$2:B$9,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>B2=LARGE(B$2:B$9,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2112,7 +2383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2296,226 +2567,14 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:D11">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>B2=LARGE(B$2:B$11,3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>B2=LARGE(B$2:B$11,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>B2=LARGE(B$2:B$11,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="75.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3">
-        <v>52</v>
-      </c>
-      <c r="C3">
-        <v>99</v>
-      </c>
-      <c r="D3">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <v>93</v>
-      </c>
-      <c r="D4">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>73</v>
-      </c>
-      <c r="D5">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>123</v>
-      </c>
-      <c r="D6">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9">
-        <v>142</v>
-      </c>
-      <c r="C9">
-        <v>282</v>
-      </c>
-      <c r="D9">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10">
-        <v>86</v>
-      </c>
-      <c r="C10">
-        <v>114</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11">
-        <v>263</v>
-      </c>
-      <c r="C11">
-        <v>315</v>
-      </c>
-      <c r="D11">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12">
-        <v>193</v>
-      </c>
-      <c r="C12">
-        <v>141</v>
-      </c>
-      <c r="D12">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
-        <v>1105</v>
-      </c>
-      <c r="C13">
-        <v>1602</v>
-      </c>
-      <c r="D13">
-        <v>2707</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:D12">
-    <cfRule type="expression" dxfId="27" priority="17">
-      <formula>B2=LARGE(B$2:B$12,3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="18">
-      <formula>B2=LARGE(B$2:B$12,2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="19">
-      <formula>B2=LARGE(B$2:B$12,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2532,12 +2591,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="91.85546875" customWidth="1"/>
+    <col min="1" max="1" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>19</v>
@@ -2551,156 +2610,156 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B4">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>309</v>
+        <v>93</v>
       </c>
       <c r="D4">
-        <v>583</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B5">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="D5">
-        <v>261</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="D6">
-        <v>73</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B7">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>295</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B8">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>424</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B9">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C9">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="D9">
-        <v>250</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="D10">
-        <v>72</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>263</v>
       </c>
       <c r="C11">
-        <v>93</v>
+        <v>315</v>
       </c>
       <c r="D11">
-        <v>223</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B12">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C12">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="D12">
-        <v>440</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2708,25 +2767,25 @@
         <v>34</v>
       </c>
       <c r="B13">
-        <v>1302</v>
+        <v>1105</v>
       </c>
       <c r="C13">
-        <v>1728</v>
+        <v>1602</v>
       </c>
       <c r="D13">
-        <v>3030</v>
+        <v>2707</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:D12">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>B2=LARGE(B$2:B$12,3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>B2=LARGE(B$2:B$12,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>B2=LARGE(B$2:B$12,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2735,6 +2794,218 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="91.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>129</v>
+      </c>
+      <c r="D2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4">
+        <v>274</v>
+      </c>
+      <c r="C4">
+        <v>309</v>
+      </c>
+      <c r="D4">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>130</v>
+      </c>
+      <c r="C5">
+        <v>131</v>
+      </c>
+      <c r="D5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>119</v>
+      </c>
+      <c r="C7">
+        <v>176</v>
+      </c>
+      <c r="D7">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <v>167</v>
+      </c>
+      <c r="C8">
+        <v>257</v>
+      </c>
+      <c r="D8">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9">
+        <v>149</v>
+      </c>
+      <c r="C9">
+        <v>101</v>
+      </c>
+      <c r="D9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>130</v>
+      </c>
+      <c r="C11">
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <v>209</v>
+      </c>
+      <c r="C12">
+        <v>231</v>
+      </c>
+      <c r="D12">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>1302</v>
+      </c>
+      <c r="C13">
+        <v>1728</v>
+      </c>
+      <c r="D13">
+        <v>3030</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:D12">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>B2=LARGE(B$2:B$12,3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>B2=LARGE(B$2:B$12,2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>B2=LARGE(B$2:B$12,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2817,7 +3088,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:D4">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>B2=LARGE(B$2:B$4,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2825,7 +3096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
@@ -2837,46 +3108,46 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3274,7 +3545,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:Y5">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="11" priority="22">
       <formula>B3=LARGE(B$3:B$5,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3282,7 +3553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3365,7 +3636,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:D4">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>B2=LARGE(B$2:B$4,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3373,7 +3644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S6"/>
   <sheetViews>
@@ -3385,36 +3656,36 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3720,7 +3991,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:S5">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>B3=LARGE(B$3:B$5,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3728,7 +3999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -3828,7 +4099,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:D5">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>B2=LARGE(B$2:B$5,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3836,7 +4107,549 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4">
+        <v>113</v>
+      </c>
+      <c r="H4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5">
+        <v>116</v>
+      </c>
+      <c r="H5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6">
+        <v>169</v>
+      </c>
+      <c r="D6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I8">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9">
+        <v>201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9">
+        <v>115</v>
+      </c>
+      <c r="H9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>182</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1307</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13">
+        <v>151</v>
+      </c>
+      <c r="F13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13">
+        <v>717</v>
+      </c>
+      <c r="H13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13">
+        <v>369</v>
+      </c>
+      <c r="J13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13">
+        <v>62</v>
+      </c>
+      <c r="L13" t="s">
+        <v>169</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -4034,295 +4847,14 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:D12">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>B2=LARGE(B$2:B$12,3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>B2=LARGE(B$2:B$12,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>B2=LARGE(B$2:B$12,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>397</v>
-      </c>
-      <c r="C4">
-        <v>647</v>
-      </c>
-      <c r="D4">
-        <v>44</v>
-      </c>
-      <c r="E4">
-        <v>46</v>
-      </c>
-      <c r="F4" s="7">
-        <v>30</v>
-      </c>
-      <c r="G4" s="4">
-        <v>28</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="7">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4">
-        <v>40</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>422</v>
-      </c>
-      <c r="C6">
-        <v>687</v>
-      </c>
-      <c r="D6">
-        <v>46</v>
-      </c>
-      <c r="E6">
-        <v>52</v>
-      </c>
-      <c r="F6">
-        <v>55</v>
-      </c>
-      <c r="G6">
-        <v>34</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>1307</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2">
-        <v>37</v>
-      </c>
-      <c r="C2">
-        <v>37</v>
-      </c>
-      <c r="D2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4">
-        <v>143</v>
-      </c>
-      <c r="C4">
-        <v>93</v>
-      </c>
-      <c r="D4">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>215</v>
-      </c>
-      <c r="C5">
-        <v>148</v>
-      </c>
-      <c r="D5">
-        <v>363</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:D4">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>B2=LARGE(B$2:B$4,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4341,7 +4873,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>19</v>
@@ -4355,44 +4887,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D4">
-        <v>136</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4400,19 +4932,19 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="D5">
-        <v>235</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:D4">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>B2=LARGE(B$2:B$4,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4422,9 +4954,100 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:D4">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>B2=LARGE(B$2:B$4,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -4698,44 +5321,234 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>397</v>
+      </c>
+      <c r="C4">
+        <v>647</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>46</v>
+      </c>
+      <c r="F4" s="7">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>422</v>
+      </c>
+      <c r="C6">
+        <v>687</v>
+      </c>
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>52</v>
+      </c>
+      <c r="F6">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1307</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -4877,7 +5690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
@@ -4893,38 +5706,38 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -4978,7 +5791,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5034,7 +5847,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -5088,7 +5901,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5144,7 +5957,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -5198,7 +6011,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
@@ -5266,58 +6079,58 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:C7">
-    <cfRule type="top10" dxfId="77" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6">
-    <cfRule type="top10" dxfId="76" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="67" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="top10" dxfId="75" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="66" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="top10" dxfId="74" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="65" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J6">
-    <cfRule type="top10" dxfId="73" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="64" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L6">
-    <cfRule type="top10" dxfId="72" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="63" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
-    <cfRule type="top10" dxfId="71" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P6">
-    <cfRule type="top10" dxfId="70" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="61" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R6">
-    <cfRule type="top10" dxfId="69" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="top10" dxfId="68" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="59" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="top10" dxfId="67" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I6">
-    <cfRule type="top10" dxfId="66" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K6">
-    <cfRule type="top10" dxfId="65" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M6">
-    <cfRule type="top10" dxfId="64" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="55" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O6">
-    <cfRule type="top10" dxfId="63" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q6">
-    <cfRule type="top10" dxfId="62" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="53" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
@@ -5329,38 +6142,38 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -5414,7 +6227,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5470,7 +6283,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -5524,7 +6337,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5580,7 +6393,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -5634,7 +6447,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
@@ -5702,58 +6515,58 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q3:Q6">
-    <cfRule type="top10" dxfId="61" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C7">
-    <cfRule type="top10" dxfId="60" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6">
-    <cfRule type="top10" dxfId="59" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="top10" dxfId="58" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="top10" dxfId="57" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J6">
-    <cfRule type="top10" dxfId="56" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L6">
-    <cfRule type="top10" dxfId="55" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
-    <cfRule type="top10" dxfId="54" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P6">
-    <cfRule type="top10" dxfId="53" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R6">
-    <cfRule type="top10" dxfId="52" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="top10" dxfId="51" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="42" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="top10" dxfId="50" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I6">
-    <cfRule type="top10" dxfId="49" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K6">
-    <cfRule type="top10" dxfId="48" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M6">
-    <cfRule type="top10" dxfId="47" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O6">
-    <cfRule type="top10" dxfId="46" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -6007,13 +6820,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:D16">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>B2=LARGE(B$2:B$16,3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>B2=LARGE(B$2:B$16,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="34" priority="3">
       <formula>B2=LARGE(B$2:B$16,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6021,7 +6834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -6163,13 +6976,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:D8">
-    <cfRule type="expression" dxfId="42" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>B2=LARGE(B$2:B$8,3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>B2=LARGE(B$2:B$8,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>B2=LARGE(B$2:B$8,1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6177,7 +6990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -6191,30 +7004,30 @@
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6637,487 +7450,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:M10">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>B3=LARGE(B$3:B$10,3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>B3=LARGE(B$3:B$10,2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="3">
-      <formula>B3=LARGE(B$3:B$10,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.307</v>
-      </c>
-      <c r="C3">
-        <v>163</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.151</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.122</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="C4">
-        <v>487</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.314</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2.3E-2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K5" s="3">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.441</v>
-      </c>
-      <c r="C6">
-        <v>152</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.105</v>
-      </c>
-      <c r="E6" s="3">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="I6" s="3">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="3">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="C7">
-        <v>172</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="F7" s="3">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="H7" s="3">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="3">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="C8">
-        <v>177</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.105</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.108</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="C9">
-        <v>34</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="C10">
-        <v>101</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.105</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.128</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="I10" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="J10" s="3">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.222</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>1307</v>
-      </c>
-      <c r="D11">
-        <v>57</v>
-      </c>
-      <c r="E11">
-        <v>94</v>
-      </c>
-      <c r="F11">
-        <v>306</v>
-      </c>
-      <c r="G11">
-        <v>411</v>
-      </c>
-      <c r="H11">
-        <v>147</v>
-      </c>
-      <c r="I11">
-        <v>222</v>
-      </c>
-      <c r="J11">
-        <v>17</v>
-      </c>
-      <c r="K11">
-        <v>45</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B3:M10">
-    <cfRule type="expression" dxfId="36" priority="1">
-      <formula>B3=LARGE(B$3:B$10,3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="2">
-      <formula>B3=LARGE(B$3:B$10,2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>B3=LARGE(B$3:B$10,1)</formula>
     </cfRule>
   </conditionalFormatting>
